--- a/Resultados/dano_porcentaje_3.xlsx
+++ b/Resultados/dano_porcentaje_3.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="4" uniqueCount="1">
   <si>
     <t>Porcentaje_de_Daño</t>
   </si>
@@ -67,7 +67,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3" customWidth="true"/>
+    <col min="1" max="1" width="19.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -77,7 +77,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
